--- a/GE3nada_TestCasesTemplate_2022_v1.0_EN.xlsx
+++ b/GE3nada_TestCasesTemplate_2022_v1.0_EN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KaterEnnadaHelali/PycharmProjects/G88.2022.T16.GE3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83C0B6F0-C62B-9640-8113-031035A47FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937602BC-F0A9-494D-B7C3-31307655CB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GE3 2021 F1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="165">
   <si>
     <t>#</t>
   </si>
@@ -117,9 +117,6 @@
   </si>
   <si>
     <t>VALID</t>
-  </si>
-  <si>
-    <t>id_of_your_testcase</t>
   </si>
   <si>
     <t>Initial brace deleted</t>
@@ -309,12 +306,243 @@
   <si>
     <t>TEST_ECNV18</t>
   </si>
+  <si>
+    <t>NT</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_valid</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node1_delete</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node1_duplicate</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node2_delete</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node2_duplicate</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node3_delete</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node3_duplicate</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node4_delete</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node4_duplicate</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node5_modify</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node7_delete</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node7_duplicate</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node6_duplicate</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node6_delete</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node8_delete</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node8_duplicate</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node9_modify</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node10_delete</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node10_duplicate</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node11_delete</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node11_duplicate</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node12_delete</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node12_duplicate</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node13_modify</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node14_delete</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node14_duplicate</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node15_delete</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node15_duplicate</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node16_delete</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node16_duplicate</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node17_delete</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node17_duplicate</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node18_delete</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node18_duplicate</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node19_delete</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node19_duplicate</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node20_modify</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node21_delete</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node21_dupllicate</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node22_delete</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node22_duplicate</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node23_delete</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node23_duplicate</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node24_delete</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node24_duplicate</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node25_delete</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node25_duplicate</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node26_delete</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node26_duplicate</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node27_modify</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node28_delete</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node28_duplicate</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node29_delete</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node29_duplicate</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node30_delete</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node30_duplicate</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node31_modify</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node32_modify</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node33_modify</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node34_modify</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node35_modify</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node36_modify</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node37_modify</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node38_modify</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node39_modify</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node40_modify</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node41_delete</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node41_duplicate</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node42_delete</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node42_duplicate</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node43_modify</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node44_modify</t>
+  </si>
+  <si>
+    <t>test_vaccine_date_node45_modify</t>
+  </si>
+  <si>
+    <t>DELETION</t>
+  </si>
+  <si>
+    <t>DUPLICATION</t>
+  </si>
+  <si>
+    <t>MODIFICATION</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -336,16 +564,34 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFD9E2F3"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -353,11 +599,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF4472C4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -365,6 +620,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,7 +753,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_2" displayName="Table_2" ref="A1:J43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_2" displayName="Table_2" ref="A1:J170">
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="#"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="NODE"/>
@@ -508,7 +766,7 @@
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="EXPECTED RESULT"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="OBSERVATIONS"/>
   </tableColumns>
-  <tableStyleInfo name="GE3 2021 F2-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -727,7 +985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O996"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="109" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -800,7 +1058,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>15</v>
@@ -813,20 +1071,20 @@
         <v>16</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="M2" s="1">
         <v>21</v>
@@ -839,7 +1097,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>15</v>
@@ -848,32 +1106,32 @@
         <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="M3" s="4">
         <v>21</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O3" s="4"/>
     </row>
@@ -882,31 +1140,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="M4" s="4">
         <v>21</v>
@@ -919,17 +1177,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>18</v>
@@ -939,13 +1197,13 @@
         <v>1</v>
       </c>
       <c r="J5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="M5" s="4">
         <v>21</v>
@@ -958,33 +1216,33 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="M6" s="4">
         <v>21</v>
@@ -997,33 +1255,33 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="M7" s="4">
         <v>21</v>
@@ -1036,33 +1294,33 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="M8" s="4">
         <v>21</v>
@@ -1075,33 +1333,33 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="K9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M9" s="4">
         <v>21</v>
@@ -1115,33 +1373,33 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="K10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M10" s="4">
         <v>21</v>
@@ -1155,33 +1413,33 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="K11" s="1">
         <v>1</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M11" s="4">
         <v>21</v>
@@ -1195,33 +1453,33 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="K12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M12" s="4">
         <v>21</v>
@@ -1235,33 +1493,33 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="K13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="L13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M13" s="4">
         <v>21</v>
@@ -1275,33 +1533,33 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="K14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="L14" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M14" s="4">
         <v>21</v>
@@ -1315,33 +1573,33 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="K15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K15" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="L15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M15" s="4">
         <v>21</v>
@@ -1355,33 +1613,33 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="K16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="L16" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="M16" s="1">
         <v>5</v>
@@ -1395,33 +1653,33 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="K17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="L17" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="M17" s="1">
         <v>126</v>
@@ -1435,33 +1693,33 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="K18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="L18" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="M18" s="1">
         <v>10.01</v>
@@ -1475,36 +1733,36 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="K19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="L19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L19" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="M19" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
@@ -1515,36 +1773,36 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="K20" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="L20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L20" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="M20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -2843,7 +3101,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C52" zoomScale="200" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2895,28 +3155,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="J2" s="1"/>
     </row>
@@ -2924,10 +3184,18 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>90</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -2938,10 +3206,18 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>91</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -2952,10 +3228,18 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -2966,10 +3250,18 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -2977,11 +3269,21 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -2989,11 +3291,21 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -3001,11 +3313,21 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -3013,11 +3335,21 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -3025,11 +3357,21 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -3037,11 +3379,21 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -3049,11 +3401,21 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>6</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>101</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -3061,11 +3423,21 @@
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -3073,11 +3445,21 @@
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>100</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -3085,11 +3467,21 @@
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>103</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -3097,11 +3489,21 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>8</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -3109,11 +3511,21 @@
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>9</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -3121,11 +3533,21 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>10</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -3133,11 +3555,21 @@
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>10</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -3145,11 +3577,21 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>11</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>108</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -3157,11 +3599,21 @@
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>11</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>109</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -3169,11 +3621,21 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>12</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -3181,11 +3643,21 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>12</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -3193,11 +3665,21 @@
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>13</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -3205,11 +3687,21 @@
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>14</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -3217,11 +3709,21 @@
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>14</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>114</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -3229,11 +3731,21 @@
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>15</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>115</v>
+      </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -3241,11 +3753,21 @@
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>15</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>116</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -3253,11 +3775,21 @@
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>16</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>117</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -3265,11 +3797,21 @@
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>16</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -3277,11 +3819,21 @@
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>17</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -3289,11 +3841,21 @@
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>17</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>120</v>
+      </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -3301,11 +3863,21 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>18</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -3313,11 +3885,21 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>18</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>122</v>
+      </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -3325,11 +3907,21 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>19</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -3337,11 +3929,21 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>19</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>124</v>
+      </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -3349,11 +3951,21 @@
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>20</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>125</v>
+      </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -3361,11 +3973,21 @@
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>21</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>126</v>
+      </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -3373,11 +3995,21 @@
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>21</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>127</v>
+      </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -3385,11 +4017,21 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>22</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>128</v>
+      </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -3397,11 +4039,21 @@
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>22</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>129</v>
+      </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -3409,150 +4061,1040 @@
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>23</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>130</v>
+      </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>23</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>24</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>24</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>25</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>25</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>26</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>26</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>27</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>28</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>28</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>29</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>29</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>30</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>30</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>31</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>32</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>33</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>34</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="4">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>35</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="4">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>36</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="4">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>37</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="4">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>38</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>39</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="4">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>40</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>41</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="4">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>41</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="4">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>42</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="4">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>42</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="4">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>43</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="4">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>44</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="4">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>45</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="4">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="4">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="4">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="4">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="4">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="4">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="4">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="4">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="4">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="4">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="4">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="4">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="4">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4408,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
@@ -4417,7 +5959,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>24</v>
@@ -4431,17 +5973,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="G2" s="1"/>
     </row>
